--- a/logistik/Stückliste_ZBW_V001.xlsx
+++ b/logistik/Stückliste_ZBW_V001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Beschreibung</t>
   </si>
@@ -124,6 +124,9 @@
     <t xml:space="preserve">RFID-Leser mit 2 RFID-Karten</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.bastelgarage.ch/index.php?route=product/product&amp;search=rc522&amp;product_id=157</t>
+  </si>
+  <si>
     <t xml:space="preserve">Folientastatur 3x4</t>
   </si>
   <si>
@@ -205,7 +208,13 @@
     <t xml:space="preserve">Propeller Modul mit L9110 IC</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.roboter-bausatz.de/1189/l9110-ventilator/propeller-modul-fuer-arduino</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gyroskop ADXL345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bastelgarage.ch/index.php?route=product/product&amp;path=67_71&amp;product_id=52</t>
   </si>
   <si>
     <t xml:space="preserve">Buzzer 5V</t>
@@ -236,11 +245,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -262,6 +272,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -269,6 +287,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -331,9 +350,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,11 +387,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,17 +487,17 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E17:E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -722,10 +747,13 @@
         <f aca="false">C13*D13</f>
         <v>22.4</v>
       </c>
+      <c r="F13" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="n">
@@ -739,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,15 +776,15 @@
       <c r="C15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>36</v>
+      <c r="A16" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="n">
@@ -770,12 +798,12 @@
         <v>114</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="n">
@@ -789,12 +817,12 @@
         <v>126</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="n">
@@ -810,7 +838,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="n">
@@ -824,12 +852,12 @@
         <v>10.5</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="n">
@@ -843,12 +871,12 @@
         <v>10.5</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="n">
@@ -862,12 +890,12 @@
         <v>18</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="n">
@@ -880,13 +908,13 @@
         <f aca="false">C23*D23</f>
         <v>375</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>49</v>
+      <c r="F23" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="n">
@@ -900,12 +928,12 @@
         <v>294</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="n">
@@ -919,12 +947,12 @@
         <v>45</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="n">
@@ -938,12 +966,12 @@
         <v>13.5</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="n">
@@ -957,12 +985,12 @@
         <v>36</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="5" t="n">
@@ -975,13 +1003,13 @@
         <f aca="false">C28*D28</f>
         <v>51</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="n">
@@ -994,10 +1022,13 @@
         <f aca="false">C29*D29</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="n">
@@ -1010,10 +1041,13 @@
         <f aca="false">C30*D30</f>
         <v>75</v>
       </c>
+      <c r="F30" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="n">
@@ -1027,12 +1061,12 @@
         <v>13.5</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="n">
@@ -1048,7 +1082,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="n">
@@ -1064,20 +1098,20 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" s="0" t="n">
         <f aca="false">SUM(E2:E35)</f>
@@ -1087,7 +1121,9 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" display="http://mikroshop.ch/Mikrokontroller.html?gruppe=3&amp;artikel=1166"/>
+    <hyperlink ref="F13" r:id="rId1" display="https://www.bastelgarage.ch/index.php?route=product/product&amp;search=rc522&amp;product_id=157"/>
+    <hyperlink ref="F23" r:id="rId2" display="http://mikroshop.ch/Mikrokontroller.html?gruppe=3&amp;artikel=1166"/>
+    <hyperlink ref="F30" r:id="rId3" display="https://www.bastelgarage.ch/index.php?route=product/product&amp;path=67_71&amp;product_id=52"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
